--- a/STUDENT_DATA_FILE.xlsx
+++ b/STUDENT_DATA_FILE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>password</t>
   </si>
@@ -101,16 +101,61 @@
   <si>
     <t>download.jpg</t>
   </si>
+  <si>
+    <t>pass789</t>
+  </si>
+  <si>
+    <t>لين</t>
+  </si>
+  <si>
+    <t>ثاني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  📚
+أظهر تقدّمًا في مادة الرياضيات، خصوصًا في الجمع والطرح.
+تحسن في القراءة لكنه ما زال يحتاج وقتًا أطول في تهجئة الكلمات.
+التزم بإنجاز الواجبات في مواعيدها.
+ 🌟
+كان منضبطًا في الطابور الصباحي معظم الأيام.
+استجاب لتعليمات المعلمة بسرعة.
+حدث موقف شجار بسيط مع زميل يوم الأربعاء وتم حله بالحديث معه.
+ 🤝
+اندمج مع أصدقائه بشكل أكبر هذا الأسبوع.
+شارك في الألعاب الجماعية وأظهر روح التعاون.
+ 🎨⚽
+أبدع في نشاط الرسم، ورسم لوحة لاقت إعجاب المعلمة.
+شارك في أنشطة رياضية بحماس.</t>
+  </si>
+  <si>
+    <t>📝 اللغة العربية
+قراءة فقرة من كتاب القراءة (صفحة 12–13).
+كتابة 3 كلمات جديدة بخط جميل.
+🔢 الرياضيات
+حل المسائل (1–5) من صفحة 20 في كتاب التمارين.
+مراجعة جدول الضرب للعدد (2).
+🌍 التربية الإسلامية / التربية الوطنية
+حفظ آية قصيرة من سورة الفاتحة.
+كتابة جملة عن "النظافة في حياتنا".
+🎨 النشاط / الفنون
+تلوين رسمة جاهزة (موضوع حر)</t>
+  </si>
+  <si>
+    <t>الأحد قرآن كريم لغة عربية رياضيات رياضيات علوم نشاط (رسم/رياضة)
+الاثنين تلاوة لغة عربية رياضيات علوم اجتماعيات تربية بدنية
+الثلاثاء قرآن كريم رياضيات لغة عربية علوم نشاط (مكتبة) فنية
+الأربعاء لغة عربية رياضيات قرآن كريم علوم حاسوب تربية وطنية
+الخميس تلاوة لغة عربية رياضيات علوم نشاط حر مراجعة / تقوية</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,7 +163,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -157,6 +202,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,20 +510,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +567,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="171" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -558,7 +607,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -592,6 +641,39 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
+    <row r="4" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/STUDENT_DATA_FILE.xlsx
+++ b/STUDENT_DATA_FILE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>password</t>
   </si>
@@ -145,6 +145,10 @@
 الثلاثاء قرآن كريم رياضيات لغة عربية علوم نشاط (مكتبة) فنية
 الأربعاء لغة عربية رياضيات قرآن كريم علوم حاسوب تربية وطنية
 الخميس تلاوة لغة عربية رياضيات علوم نشاط حر مراجعة / تقوية</t>
+  </si>
+  <si>
+    <t>🚌مساء:1
+🚌صباحا: 7</t>
   </si>
 </sst>
 </file>
@@ -513,7 +517,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +676,9 @@
       <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="M4" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="O4" s="5"/>
     </row>
   </sheetData>
